--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.812</v>
+        <v>7.58</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.484</v>
+        <v>-21.906</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.124</v>
+        <v>-21.721</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.304</v>
+        <v>-21.044</v>
       </c>
       <c r="B12" t="n">
-        <v>6.498</v>
+        <v>6.245</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.462000000000001</v>
+        <v>-6.483</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.578</v>
+        <v>-8.035999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.368</v>
+        <v>5.447</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.247999999999999</v>
+        <v>4.893000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.956</v>
+        <v>-22.096</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.225999999999999</v>
+        <v>-8.148</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.62</v>
+        <v>-7.964</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.732</v>
+        <v>5.718999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.298</v>
+        <v>6.071</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.220000000000001</v>
+        <v>6.031999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.398000000000001</v>
+        <v>-7.398999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -942,15 +942,15 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.086</v>
+        <v>-7.733</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.418</v>
+        <v>-21.016</v>
       </c>
       <c r="B37" t="n">
-        <v>9.327999999999999</v>
+        <v>8.109</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.109999999999999</v>
+        <v>-7.970000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.99</v>
+        <v>-8.129000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.298</v>
+        <v>5.508</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.842000000000001</v>
+        <v>-7.613000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.396</v>
+        <v>-22.128</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.6</v>
+        <v>-8.042999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.642</v>
+        <v>5.973999999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.08</v>
+        <v>-7.435</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.42</v>
+        <v>-21.58300000000001</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.808</v>
+        <v>6.623</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.602</v>
+        <v>-20.93</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.546</v>
+        <v>-20.34200000000001</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.944</v>
+        <v>-21.738</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.014</v>
+        <v>-21.835</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1608,13 +1608,13 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.866</v>
+        <v>6.241000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.303999999999998</v>
+        <v>-8.216000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>6.462000000000001</v>
+        <v>5.964</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.787999999999999</v>
+        <v>-7.911000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.08</v>
+        <v>-8.285</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.268</v>
+        <v>5.523000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,13 +1762,13 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>5.247999999999999</v>
+        <v>5.744</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.746</v>
+        <v>-7.918000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>4.69</v>
+        <v>6.075</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.168</v>
+        <v>5.456999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.109999999999999</v>
+        <v>5.286</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.368</v>
+        <v>-7.955999999999999</v>
       </c>
     </row>
   </sheetData>
